--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F452689-1019-461F-8CA0-486D147C43ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECCAF6F-5F85-4E36-A1CE-D547C46DAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -91,9 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>High convenience set of tables table of actual coins with photos</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>300 years since the birth of Honoré III</t>
   </si>
   <si>
@@ -230,6 +221,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_B</t>
   </si>
 </sst>
 </file>
@@ -304,6 +307,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -350,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -378,28 +383,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,11 +428,11 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -458,7 +441,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -481,7 +464,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -510,16 +493,16 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,16 +511,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,15 +527,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -612,6 +583,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -633,9 +613,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -904,552 +884,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="36.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11" t="str">
-        <f t="shared" ref="H3:H6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I6" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2008</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2009</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2010</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2011</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="11" t="str">
-        <f t="shared" ref="H7:H16" si="1">IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I7" s="11" t="str">
+        <f t="shared" ref="I7:I16" si="1">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2013</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2013</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11" t="str">
-        <f t="shared" ref="H10" si="2">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" ref="I10" si="2">IF(OR(AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2014</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11" t="str">
-        <f t="shared" ref="H11" si="3">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" ref="I11" si="3">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2015</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11" t="str">
+      <c r="G12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>2016</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f t="shared" ref="H13" si="4">IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" ref="I13" si="4">IF(OR(AND(H13&gt;1,H13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2017</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="11" t="str">
+      <c r="G14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>2018</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="11" t="str">
+      <c r="G15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>2019</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="11" t="str">
+      <c r="G16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>2020</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="11" t="str">
-        <f t="shared" ref="H17:H18" si="5">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" ref="I17:I18" si="5">IF(OR(AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2021</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="11" t="str">
-        <f t="shared" ref="H19:H20" si="6">IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" ref="I19:I20" si="6">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -1458,15 +1470,15 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G9">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+  <conditionalFormatting sqref="H7:H9">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G9">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1478,12 +1490,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1495,12 +1507,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1512,12 +1524,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16 G18 G20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="H12:H16 H18 H20">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16 G18 G20">
+  <conditionalFormatting sqref="H12:H16 H18 H20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1529,12 +1541,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="H4:H6">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
+  <conditionalFormatting sqref="H4:H6">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1546,12 +1558,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G19">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+  <conditionalFormatting sqref="H17 H19">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19 G17">
+  <conditionalFormatting sqref="H17 H19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1563,12 +1575,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1603,13 +1615,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1617,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1628,10 +1640,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1639,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1650,10 +1662,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1661,10 +1673,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1672,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECCAF6F-5F85-4E36-A1CE-D547C46DAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F504ED-DF91-4CC9-9F3A-ABB3A033074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Subtype_2#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>500 years of the contract with Charles V</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -583,15 +603,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -613,9 +624,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -884,19 +895,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="49.7265625" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.81640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
     <col min="5" max="5" width="24.54296875" style="12" customWidth="1"/>
@@ -1434,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="11" t="str">
-        <f t="shared" ref="I19:I20" si="6">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I19:I21" si="6">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1462,6 +1473,32 @@
         <v>4</v>
       </c>
       <c r="I20" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -1474,12 +1511,12 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1491,11 +1528,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1507,12 +1561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H12:H16 H18 H20">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H12:H16 H18 H20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1524,30 +1578,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16 H18 H20">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16 H18 H20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1559,11 +1596,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 H19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H19">
+  <conditionalFormatting sqref="H19 H17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1575,12 +1629,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F504ED-DF91-4CC9-9F3A-ABB3A033074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEDE64-176D-440B-AFA5-6202991EADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -531,14 +531,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -546,6 +538,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -624,9 +624,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -901,7 +901,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1494,7 +1494,9 @@
       <c r="F21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="24" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1602,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19 H17">
+  <conditionalFormatting sqref="H17 H19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1630,7 +1632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEDE64-176D-440B-AFA5-6202991EADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F2D3CA-6CD1-4748-B266-DCB7DADD3602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -229,13 +232,13 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
     <t>500 years of the contract with Charles V</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -514,6 +517,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -901,37 +910,32 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="49.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="12" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
@@ -941,19 +945,21 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>20</v>
@@ -1182,7 +1188,7 @@
       <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -1482,7 +1488,7 @@
         <v>2024</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
@@ -1506,9 +1512,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1602,7 +1608,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H19">
+  <conditionalFormatting sqref="H19 H17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F2D3CA-6CD1-4748-B266-DCB7DADD3602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0574A3-B262-49CF-A7C5-71D4000BA2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>Year</t>
   </si>
@@ -239,13 +239,16 @@
   </si>
   <si>
     <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>County of Carladès</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,8 +319,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +463,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -517,6 +533,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,8 +548,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -904,13 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -926,16 +945,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
@@ -945,7 +964,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1207,7 @@
       <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -1508,6 +1527,34 @@
       </c>
       <c r="I21" s="11" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" ref="I22" si="7">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1569,12 +1616,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16 H18 H20">
+  <conditionalFormatting sqref="H12:H16 H18 H20 H22">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16 H18 H20">
+  <conditionalFormatting sqref="H12:H16 H18 H20 H22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1608,7 +1655,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19 H17">
+  <conditionalFormatting sqref="H17 H19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1665,7 +1712,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
